--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-280533.6627588379</v>
+        <v>-283461.8799571194</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8656875.781858975</v>
+        <v>8656875.781858984</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>14.98871130521203</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>318.5480466686695</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>329.7637395315492</v>
+        <v>292.5868260671486</v>
       </c>
     </row>
     <row r="3">
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>101.7483282677571</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>99.60550320401349</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>111.8978324371517</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>318.864652897744</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>173.6677896396941</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>83.60147206155824</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -1139,10 +1139,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>172.8861799252945</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>3.793690768405031</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>139.8939792152981</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>206.1608002224381</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>17.25588147840188</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>51.06561173382013</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1622,7 +1622,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873217</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -1768,19 +1768,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>-1.885306725550132e-12</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>120.6353666620258</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>139.8654338699384</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465673</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>15.07437110675868</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>120.4263234899719</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2096,10 +2096,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873206</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.5769297729266</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881762</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851125</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734104173</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004769</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>161.7889189752451</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2333,10 +2333,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873206</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292652</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881762</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851122</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247769</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734103036</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>59.903209192989</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>173.626889274469</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>66.85274231757755</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>24.83266606353065</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>9.146142788179368</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>245.8640357413583</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3442,7 +3442,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>78.9105100867805</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>119.6255281319621</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652687</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="44">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1715.480464547043</v>
+        <v>1520.900709175067</v>
       </c>
       <c r="C2" t="n">
-        <v>1346.517947606631</v>
+        <v>1151.938192234655</v>
       </c>
       <c r="D2" t="n">
-        <v>1331.377835177124</v>
+        <v>793.6724936279045</v>
       </c>
       <c r="E2" t="n">
-        <v>945.5895825788796</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F2" t="n">
-        <v>534.603677789272</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4358,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V2" t="n">
-        <v>2048.575150942547</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W2" t="n">
-        <v>2048.575150942547</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="X2" t="n">
-        <v>2048.575150942547</v>
+        <v>1816.442957727742</v>
       </c>
       <c r="Y2" t="n">
-        <v>1715.480464547043</v>
+        <v>1520.900709175067</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>370.7922583306645</v>
+        <v>293.0479818810668</v>
       </c>
       <c r="C4" t="n">
-        <v>201.8560754027576</v>
+        <v>293.0479818810668</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>293.0479818810668</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>293.0479818810668</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>598.1004456620627</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>370.7922583306645</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>370.7922583306645</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V4" t="n">
-        <v>370.7922583306645</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W4" t="n">
-        <v>370.7922583306645</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X4" t="n">
-        <v>370.7922583306645</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y4" t="n">
-        <v>370.7922583306645</v>
+        <v>293.0479818810668</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1394.624369323446</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C5" t="n">
-        <v>1394.624369323446</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
         <v>1036.358670716696</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W5" t="n">
-        <v>1881.118241157406</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X5" t="n">
-        <v>1507.652482896327</v>
+        <v>2198.886095354873</v>
       </c>
       <c r="Y5" t="n">
-        <v>1507.652482896327</v>
+        <v>1808.746763379062</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4659,7 +4659,7 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190.2718927217162</v>
+        <v>184.0454376285415</v>
       </c>
       <c r="C7" t="n">
-        <v>190.2718927217162</v>
+        <v>184.0454376285415</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2718927217162</v>
+        <v>184.0454376285415</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>365.6939024587809</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T7" t="n">
-        <v>365.6939024587809</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="U7" t="n">
-        <v>365.6939024587809</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="V7" t="n">
-        <v>365.6939024587809</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="W7" t="n">
-        <v>365.6939024587809</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="X7" t="n">
-        <v>365.6939024587809</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="Y7" t="n">
-        <v>365.6939024587809</v>
+        <v>365.6939024587812</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1759.555763042629</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C8" t="n">
-        <v>1390.593246102217</v>
+        <v>837.1179892781315</v>
       </c>
       <c r="D8" t="n">
-        <v>1032.327547495467</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>646.5392948972226</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2693.317080141046</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2517.139592455216</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2517.139592455216</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2263.377807093308</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312743</v>
+        <v>1932.314919749737</v>
       </c>
       <c r="W8" t="n">
-        <v>1759.555763042629</v>
+        <v>1579.546264479623</v>
       </c>
       <c r="X8" t="n">
-        <v>1759.555763042629</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="Y8" t="n">
-        <v>1759.555763042629</v>
+        <v>1206.080506218543</v>
       </c>
     </row>
     <row r="9">
@@ -4872,25 +4872,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598707</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T10" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>519.8857516585174</v>
       </c>
     </row>
     <row r="11">
@@ -5036,55 +5036,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074199</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1803.682313196074</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M11" t="n">
-        <v>2337.214217867999</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N11" t="n">
-        <v>2883.993034926781</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O11" t="n">
-        <v>3547.201365906986</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4260.556453353932</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.03465586292</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730111</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5115,7 +5115,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
         <v>189.2383039390118</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>781.811212990069</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C13" t="n">
-        <v>612.8750300621621</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D13" t="n">
-        <v>462.7583906498263</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E13" t="n">
-        <v>314.8452970674332</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>263.2638710736755</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5224,25 +5224,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1956.343466104704</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V13" t="n">
-        <v>1701.658977898817</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W13" t="n">
-        <v>1412.241807861856</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X13" t="n">
-        <v>1184.252256963839</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y13" t="n">
-        <v>963.4596778203087</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749766</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551633</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001598</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>2628.734306600803</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232733</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679679</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188667</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730111</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5352,7 +5352,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
         <v>189.2383039390118</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>708.1835515663147</v>
+        <v>217.4149401676105</v>
       </c>
       <c r="C16" t="n">
-        <v>708.1835515663147</v>
+        <v>217.4149401676105</v>
       </c>
       <c r="D16" t="n">
-        <v>558.0669121539789</v>
+        <v>217.4149401676105</v>
       </c>
       <c r="E16" t="n">
-        <v>410.1538185715858</v>
+        <v>217.4149401676105</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736755</v>
+        <v>217.4149401676124</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839444</v>
+        <v>217.4149401676124</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5458,28 +5458,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1734.57685067423</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1479.892362468343</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W16" t="n">
-        <v>1338.614146438102</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X16" t="n">
-        <v>1110.624595540085</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="Y16" t="n">
-        <v>889.8320163965544</v>
+        <v>399.0634049978502</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551634</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
@@ -5510,7 +5510,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
         <v>451.8458144277729</v>
@@ -5528,22 +5528,22 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232733</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679679</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
         <v>4208.252829604875</v>
@@ -5552,7 +5552,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5589,16 +5589,16 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>260.9043113423046</v>
+        <v>1120.662598458017</v>
       </c>
       <c r="C19" t="n">
-        <v>260.9043113423046</v>
+        <v>951.7264155301096</v>
       </c>
       <c r="D19" t="n">
-        <v>110.7876719299689</v>
+        <v>801.6097761177739</v>
       </c>
       <c r="E19" t="n">
-        <v>110.7876719299689</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F19" t="n">
-        <v>110.7876719299689</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839444</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839444</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626699</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208126</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="W19" t="n">
-        <v>709.6864413838521</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="X19" t="n">
-        <v>481.6968904858347</v>
+        <v>1523.103642431786</v>
       </c>
       <c r="Y19" t="n">
-        <v>260.9043113423046</v>
+        <v>1302.311063288256</v>
       </c>
     </row>
     <row r="20">
@@ -5738,49 +5738,49 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001591</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074184</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972626</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L20" t="n">
-        <v>1069.293752345669</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M20" t="n">
-        <v>1622.425187676643</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N20" t="n">
-        <v>2602.177459903286</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232738</v>
+        <v>3819.938960973982</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679681</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188668</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
         <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
         <v>4208.252829604874</v>
@@ -5805,52 +5805,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973202</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161932</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549419</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494864</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763713</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390109</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193566</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320199</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.476988454348</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008801</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426853</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902954</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5859,7 +5859,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
         <v>2043.809373447819</v>
@@ -5868,7 +5868,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
         <v>1346.568408282342</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>245.6776738607302</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>245.6776738607302</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.6836668953295</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442049</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482926999</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892248</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598111</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518524</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952182</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104696</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862224</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1866.513008862224</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1644.74639343175</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1355.643526557393</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1100.959038351506</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W22" t="n">
-        <v>811.5418683145456</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X22" t="n">
-        <v>648.1187178345</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y22" t="n">
-        <v>427.3261386909699</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="23">
@@ -5966,67 +5966,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551628</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001593</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089263</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074186</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972632</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L23" t="n">
-        <v>1069.29375234567</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M23" t="n">
-        <v>1687.484443350894</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N23" t="n">
-        <v>2667.236715577538</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O23" t="n">
-        <v>3547.201365906991</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4260.556453353935</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862921</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6042,52 +6042,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.59277249732</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216193</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494863</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.238303939011</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919357</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320206</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.476988454347</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.0000320088</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426853</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902954</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6105,7 +6105,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
         <v>1346.568408282342</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839444</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839444</v>
+        <v>323.7721631878057</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839444</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839444</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839444</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.6836668953296</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442052</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927004</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892248</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598112</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518525</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952183</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104697</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104697</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1780.96276986786</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>1559.196154437386</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786342</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="26">
@@ -6206,19 +6206,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6303,25 +6303,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6409,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>1166.195182806534</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6452,28 +6452,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6546,19 +6546,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597619</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597619</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6783,19 +6783,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M33" t="n">
-        <v>1174.766565373399</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N33" t="n">
-        <v>1802.364528928006</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>2354.274259167293</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2354.274259167293</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>554.5813165460164</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>385.6451336181095</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1729.113569660651</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1474.429081454764</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1185.011911417804</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>957.0223605197863</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>736.2297813762561</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6935,7 +6935,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6944,13 +6944,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,22 +7014,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2117.354959541324</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.279732885522</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7163,34 +7163,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,25 +7251,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>119.2902967703784</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969303</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>803.8641191832228</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>634.9279362553159</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1206.305163156993</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>985.5125840134625</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7400,34 +7400,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273903</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M42" t="n">
-        <v>692.9625378792909</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N42" t="n">
-        <v>1320.560501433898</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O42" t="n">
-        <v>1872.470231673185</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P42" t="n">
-        <v>2296.093381168253</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2529.355041543135</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319331</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656825</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150031</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942664</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580124</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345486</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384031</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7594,7 +7594,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7646,22 +7646,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O45" t="n">
-        <v>2297.690135143765</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
         <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
@@ -7825,28 +7825,28 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8307,10 +8307,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719076</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8687,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>161.8544041422911</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8711,7 +8711,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8927,28 +8927,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>401.5033668799356</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476847</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476847</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9401,28 +9401,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>19.79750571621446</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>258.6211785616931</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,22 +9635,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>85.51392558919463</v>
+        <v>251.1867816683973</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -22553,13 +22553,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>63.38232340359224</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>56.47419912450439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>-1.019285162638847e-12</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>149.990939620226</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>94.35543628911111</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143159</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23464,13 +23464,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23656,19 +23656,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>24.11964825229502</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>146.6575644666526</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>150.9514371522695</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>105.2833318990652</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24145,7 +24145,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983833</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.769025331442</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>63.92073641379201</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>88.71226382522335</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983829</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004763</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>16.14213605697302</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>112.9792378643597</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>136.2749052347519</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25087,10 +25087,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>40.32043864788582</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,7 +25561,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>106.0841272570751</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-1.108446667785756e-12</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1159058.251899558</v>
+        <v>1159058.251899557</v>
       </c>
     </row>
     <row r="3">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274263.2212881114</v>
+        <v>274263.2212881112</v>
       </c>
       <c r="C2" t="n">
         <v>287364.6194524994</v>
@@ -26320,40 +26320,40 @@
         <v>287364.6194524994</v>
       </c>
       <c r="E2" t="n">
+        <v>277957.2508208881</v>
+      </c>
+      <c r="F2" t="n">
         <v>277957.2508208882</v>
       </c>
-      <c r="F2" t="n">
-        <v>277957.2508208883</v>
-      </c>
       <c r="G2" t="n">
+        <v>277957.2508208882</v>
+      </c>
+      <c r="H2" t="n">
         <v>277957.2508208881</v>
       </c>
-      <c r="H2" t="n">
-        <v>277957.250820888</v>
-      </c>
       <c r="I2" t="n">
-        <v>277957.2508208881</v>
+        <v>277957.2508208882</v>
       </c>
       <c r="J2" t="n">
         <v>282501.3098915021</v>
       </c>
       <c r="K2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="L2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="M2" t="n">
         <v>282501.3098915021</v>
       </c>
       <c r="N2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="O2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524994</v>
       </c>
       <c r="P2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524991</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.64126401648294e-09</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5.134659204486525e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>376527.133573594</v>
+        <v>376527.1335735914</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363166</v>
+        <v>19427.7179936319</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179699.2295958969</v>
+        <v>179699.2295958967</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26424,40 +26424,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>25090.72367499383</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="F4" t="n">
-        <v>25090.72367499383</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="G4" t="n">
-        <v>25090.72367499383</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="H4" t="n">
-        <v>25090.72367499411</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="I4" t="n">
-        <v>25090.72367499408</v>
+        <v>25090.7236749938</v>
       </c>
       <c r="J4" t="n">
+        <v>5067.59260167046</v>
+      </c>
+      <c r="K4" t="n">
         <v>5067.592601670437</v>
       </c>
-      <c r="K4" t="n">
-        <v>5067.592601670442</v>
-      </c>
       <c r="L4" t="n">
-        <v>5067.592601670443</v>
+        <v>5067.59260167044</v>
       </c>
       <c r="M4" t="n">
-        <v>5067.592601670436</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="N4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="O4" t="n">
-        <v>13058.45186476392</v>
+        <v>13058.45186476389</v>
       </c>
       <c r="P4" t="n">
-        <v>13058.45186476392</v>
+        <v>13058.45186476391</v>
       </c>
     </row>
     <row r="5">
@@ -26473,22 +26473,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371358</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371358</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-578262.9655857394</v>
+        <v>-578356.5470011993</v>
       </c>
       <c r="C6" t="n">
         <v>3441.035461358464</v>
       </c>
       <c r="D6" t="n">
-        <v>3441.035461358377</v>
+        <v>3441.035461358435</v>
       </c>
       <c r="E6" t="n">
-        <v>-570894.4051012262</v>
+        <v>-570961.6005914516</v>
       </c>
       <c r="F6" t="n">
-        <v>156483.0088921807</v>
+        <v>156415.8134019549</v>
       </c>
       <c r="G6" t="n">
-        <v>156483.0088921807</v>
+        <v>156415.8134019549</v>
       </c>
       <c r="H6" t="n">
-        <v>156483.0088921836</v>
+        <v>156415.8134019548</v>
       </c>
       <c r="I6" t="n">
-        <v>156483.0088921799</v>
+        <v>156415.8134019549</v>
       </c>
       <c r="J6" t="n">
-        <v>-200215.9461076694</v>
+        <v>-200250.6840331026</v>
       </c>
       <c r="K6" t="n">
-        <v>176311.1874659247</v>
+        <v>176276.4495404889</v>
       </c>
       <c r="L6" t="n">
-        <v>176311.1874659247</v>
+        <v>176276.4495404889</v>
       </c>
       <c r="M6" t="n">
-        <v>46668.87262697976</v>
+        <v>46634.13470154413</v>
       </c>
       <c r="N6" t="n">
-        <v>176311.1874659245</v>
+        <v>176276.4495404888</v>
       </c>
       <c r="O6" t="n">
-        <v>151714.3337401883</v>
+        <v>151714.3337401882</v>
       </c>
       <c r="P6" t="n">
-        <v>171142.0517338199</v>
+        <v>171142.05173382</v>
       </c>
     </row>
   </sheetData>
@@ -26722,10 +26722,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26753,10 +26753,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593294</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593295</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,13 +26975,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.5795601499674e-12</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>278.1987997483791</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26993,10 +26993,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="O3" t="n">
-        <v>-2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>652.4826302492736</v>
+        <v>652.4826302492738</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>339.6943303154709</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>93.65111258890499</v>
       </c>
     </row>
     <row r="3">
@@ -27537,16 +27537,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>43.67271975517417</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,7 +27555,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>112.5400357460054</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>270.8360092263288</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>50.86644778072503</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.164190542243205</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>62.83249058501093</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27859,10 +27859,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>233.9898658164169</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>50.68471180640663</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>85.14112624278619</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>19.54885516659905</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28263,7 +28263,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>4.901797486430345e-12</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28494,7 +28494,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -28728,7 +28728,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203977</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31516,46 +31516,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31692,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32312,7 +32312,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32333,7 +32333,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.38101186168158</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.8670377284465</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974793</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953974</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003788</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623166</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574964</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990094993</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.151212309903</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746389</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781671</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563558</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806911</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
-        <v>19.17787942451113</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345264</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502557</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798522</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752225</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026429</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353142</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138776</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233602</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.64781668379</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970228</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002909</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987475</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905535</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238299</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.44815837589846</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1542136840462209</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.96517109943053</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311872</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451741995</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
-        <v>138.9375967297385</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702015</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098808</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316421</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883103</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.768002308599</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
-        <v>237.678511880216</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.5562817895874</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.3612387071218</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553022</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112262</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.107191150878029</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681583</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844653</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974794</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953976</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003791</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.356529362317</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574969</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990094997</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099035</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746392</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781674</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.198736356356</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806918</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
-        <v>19.17787942451114</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345266</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502559</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798524</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752231</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026431</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353145</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138779</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233582</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837904</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970232</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002912</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987477</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905536</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238302</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898467</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
-        <v>0.154213684046221</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430531</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311873</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451741999</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
-        <v>138.9375967297385</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702017</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909881</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316422</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883105</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023085992</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802161</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.5562817895875</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712186</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553025</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112267</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780291</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,13 +33038,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33266,22 +33266,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33503,10 +33503,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>279.2419622547062</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,10 +33515,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>340.7767527663067</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33734,13 +33734,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,10 +33749,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338202</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,13 +34199,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34214,34 +34214,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>169.6252075171357</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34451,7 +34451,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>391.925066926462</v>
+        <v>332.9841464938405</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
@@ -35422,7 +35422,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>669.9074050305102</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -35431,7 +35431,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>953.8052022928471</v>
       </c>
       <c r="O14" t="n">
-        <v>852.7555845359038</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597715</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
@@ -35896,7 +35896,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359038</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908545</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597715</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -35981,7 +35981,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687111</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865553982</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923293</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>558.7186215464382</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248925</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509616</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908519</v>
+        <v>657.3831647810649</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636223</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152061</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597622</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609552</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340034</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013419</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004567</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525784</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859607</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612726</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306568</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443187</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.757372170197</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934826</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675389</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226387</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451095</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.394238537893</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687113</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865553986</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923298</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>624.4350414194188</v>
+        <v>790.1078974986241</v>
       </c>
       <c r="N23" t="n">
-        <v>989.648759824893</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509621</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908524</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636226</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222387</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597637</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609555</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340037</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013399</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004572</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525787</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.635950985961</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127261</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306577</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443188</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701972</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934828</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.856946167539</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226389</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451096</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789312</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,13 +36686,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36841,7 +36841,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -36914,22 +36914,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37081,7 +37081,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,10 +37151,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,10 +37163,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>200.7949786802852</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,10 +37397,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394599</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>23.94570355317173</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
         <v>397.5465471980852</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,7 +38099,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>257.9506595121318</v>
+        <v>199.0097390795103</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38181,13 +38181,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
